--- a/result.xlsx
+++ b/result.xlsx
@@ -1,31 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uec\基礎科学実験A\06\BSEA2_06_ElectricalCircuit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF752A36-03FB-4631-A739-C650A908C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="R1" sheetId="1" r:id="rId1"/>
+    <sheet name="R2" sheetId="2" r:id="rId2"/>
+    <sheet name="R3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>|V|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log|V|</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +405,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A3-A2</f>
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E2">
+        <f>LOG(D2/$D$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">A4-A3</f>
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">ABS(C3)</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
+        <v>-0.15806815492240867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>-0.30845401374318804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>158</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.44863271690822487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>212</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>0.112</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.112</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-0.62472397596390616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>266</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>-0.08</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-0.77085201164214412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>320</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-0.92575397162788731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>374</v>
+      </c>
+      <c r="C9">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-1.1687920203141817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>27.44</v>
+      </c>
+      <c r="B12">
+        <v>10.24</v>
+      </c>
+      <c r="C12">
+        <v>160.9</v>
+      </c>
+      <c r="D12">
+        <v>130.29</v>
+      </c>
+      <c r="E12">
+        <f>E13*1000000</f>
+        <v>105.74174982428167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>A12/1000</f>
+        <v>2.7440000000000003E-2</v>
+      </c>
+      <c r="B13">
+        <f>B12/1000000000</f>
+        <v>1.0240000000000001E-8</v>
+      </c>
+      <c r="C13">
+        <f>C12</f>
+        <v>160.9</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>130.29</v>
+      </c>
+      <c r="E13">
+        <f>2*PI()/SQRT(1/A13/B13-((C13+D13)/2/A13)^2)</f>
+        <v>1.0574174982428167E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A2F20-0891-4E84-9E25-B8B765F52A72}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A3-A2</f>
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>1.46</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>1.46</v>
+      </c>
+      <c r="E2">
+        <f>LOG(D2/$D$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">A4-A3</f>
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>-0.74</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">ABS(C3)</f>
+        <v>0.74</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
+        <v>-0.29512113605346091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>0.38</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>-0.58456925916762692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>-0.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.86332286012045589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>212</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-1.1643528557844369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>27.44</v>
+      </c>
+      <c r="B12">
+        <v>10.24</v>
+      </c>
+      <c r="C12">
+        <v>160.9</v>
+      </c>
+      <c r="D12">
+        <v>460.8</v>
+      </c>
+      <c r="E12">
+        <f>E13*1000000</f>
+        <v>107.27456126059701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>A12/1000</f>
+        <v>2.7440000000000003E-2</v>
+      </c>
+      <c r="B13">
+        <f>B12/1000000000</f>
+        <v>1.0240000000000001E-8</v>
+      </c>
+      <c r="C13">
+        <f>C12</f>
+        <v>160.9</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>460.8</v>
+      </c>
+      <c r="E13">
+        <f>2*PI()/SQRT(1/A13/B13-((C13+D13)/2/A13)^2)</f>
+        <v>1.0727456126059702E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270DC4FC-06D0-4B46-A377-F04A1852B6E6}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A3-A2</f>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>5.52</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>5.52</v>
+      </c>
+      <c r="E2">
+        <f>LOG(D2/$D$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B8" si="0">A4-A3</f>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>3.44</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="1">ABS(C3)</f>
+        <v>3.44</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
+        <v>-0.2053806351576688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1.92</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>-0.4586378490256493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.69272105505901715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0.64</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-0.93575910374531168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-1.1398790864012365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>27.44</v>
+      </c>
+      <c r="B12">
+        <v>10.24</v>
+      </c>
+      <c r="C12">
+        <v>160.9</v>
+      </c>
+      <c r="D12">
+        <v>130.29</v>
+      </c>
+      <c r="E12">
+        <f>E13*1000000</f>
+        <v>105.74174982428167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <f>A12/1000</f>
+        <v>2.7440000000000003E-2</v>
+      </c>
+      <c r="B13">
+        <f>B12/1000000000</f>
+        <v>1.0240000000000001E-8</v>
+      </c>
+      <c r="C13">
+        <f>C12</f>
+        <v>160.9</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>130.29</v>
+      </c>
+      <c r="E13">
+        <f>2*PI()/SQRT(1/A13/B13-((C13+D13)/2/A13)^2)</f>
+        <v>1.0574174982428167E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uec\基礎科学実験A\06\BSEA2_06_ElectricalCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF752A36-03FB-4631-A739-C650A908C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828339C6-E405-4FA0-B732-170F21F36C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R1" sheetId="1" r:id="rId1"/>
     <sheet name="R2" sheetId="2" r:id="rId2"/>
     <sheet name="R3" sheetId="3" r:id="rId3"/>
+    <sheet name="R4" sheetId="4" r:id="rId4"/>
+    <sheet name="O" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>t</t>
     <phoneticPr fontId="1"/>
@@ -81,6 +83,38 @@
   </si>
   <si>
     <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rinp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g-o1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -408,9 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -450,7 +482,7 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="E2">
-        <f>LOG(D2/$D$2)</f>
+        <f>LN(D2/$D$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -470,8 +502,8 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
-        <v>-0.15806815492240867</v>
+        <f t="shared" ref="E3:E9" si="2">LN(D3/$D$2)</f>
+        <v>-0.36396537720141159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -491,7 +523,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-0.30845401374318804</v>
+        <v>-0.71024161391924523</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -511,7 +543,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>-0.44863271690822487</v>
+        <v>-1.0330150061822962</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -531,7 +563,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>-0.62472397596390616</v>
+        <v>-1.4384801142904609</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -551,7 +583,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>-0.77085201164214412</v>
+        <v>-1.7749523509116736</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -571,7 +603,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>-0.92575397162788731</v>
+        <v>-2.1316272948504063</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -587,7 +619,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>-1.1687920203141817</v>
+        <v>-2.6912430827858289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -658,9 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A2F20-0891-4E84-9E25-B8B765F52A72}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -700,7 +730,7 @@
         <v>1.46</v>
       </c>
       <c r="E2">
-        <f>LOG(D2/$D$2)</f>
+        <f>LN(D2/$D$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -720,8 +750,8 @@
         <v>0.74</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
-        <v>-0.29512113605346091</v>
+        <f t="shared" ref="E3:E6" si="2">LN(D3/$D$2)</f>
+        <v>-0.6795415285041666</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -741,7 +771,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-0.58456925916762692</v>
+        <v>-1.3460204619819507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -761,7 +791,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>-0.86332286012045589</v>
+        <v>-1.9878743481543453</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -777,7 +807,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>-1.1643528557844369</v>
+        <v>-2.6810215287142904</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -848,9 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270DC4FC-06D0-4B46-A377-F04A1852B6E6}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -890,7 +918,7 @@
         <v>5.52</v>
       </c>
       <c r="E2">
-        <f>LOG(D2/$D$2)</f>
+        <f>LN(D2/$D$2)</f>
         <v>0</v>
       </c>
     </row>
@@ -910,8 +938,8 @@
         <v>3.44</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="2">LOG(D3/$D$2)</f>
-        <v>-0.2053806351576688</v>
+        <f t="shared" ref="E3:E7" si="2">LN(D3/$D$2)</f>
+        <v>-0.47290638890369696</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -931,7 +959,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>-0.4586378490256493</v>
+        <v>-1.0560526742493137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -951,7 +979,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>-0.69272105505901715</v>
+        <v>-1.5950491749820006</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -971,7 +999,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>-0.93575910374531168</v>
+        <v>-2.1546649629174235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -987,7 +1015,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>-1.1398790864012365</v>
+        <v>-2.6246685921631587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1052,4 +1080,465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6DB60C-38C8-42C2-9FBB-BDEEDCA60692}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A3-A2</f>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>6.56</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>6.56</v>
+      </c>
+      <c r="E2">
+        <f>LN(D2/$D$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">A4-A3</f>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>4.72</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="1">ABS(C3)</f>
+        <v>4.72</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="2">LN(D3/$D$2)</f>
+        <v>-0.3291818033585337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>3.52</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.52</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>-0.62252961334599188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2.56</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-0.94098334446452658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1.92</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.92</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>-1.2286654169163076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1.44</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>-1.5163474893680884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1.04</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>-1.8417698898027164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <f>A10-A9</f>
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>-2.1041341542702074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>-2.4608090982089399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>225</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>-2.7972813348301528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>0.32</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>-3.0204248861443626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>27.44</v>
+      </c>
+      <c r="B17">
+        <v>10.24</v>
+      </c>
+      <c r="C17">
+        <v>160.9</v>
+      </c>
+      <c r="D17">
+        <v>130.29</v>
+      </c>
+      <c r="E17">
+        <f>E18*1000000</f>
+        <v>105.74174982428167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f>A17/1000</f>
+        <v>2.7440000000000003E-2</v>
+      </c>
+      <c r="B18">
+        <f>B17/1000000000</f>
+        <v>1.0240000000000001E-8</v>
+      </c>
+      <c r="C18">
+        <f>C17</f>
+        <v>160.9</v>
+      </c>
+      <c r="D18">
+        <f>D17</f>
+        <v>130.29</v>
+      </c>
+      <c r="E18">
+        <f>2*PI()/SQRT(1/A18/B18-((C18+D18)/2/A18)^2)</f>
+        <v>1.0574174982428167E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A387F12E-F544-4236-BD76-2931FB726575}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2.7439999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>160.9</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>10.24</v>
+      </c>
+      <c r="E2">
+        <f>SQRT(1/A2/D3)</f>
+        <v>59656.52721259473</v>
+      </c>
+      <c r="F2">
+        <v>130.29</v>
+      </c>
+      <c r="G2">
+        <f>F2+$C$2+$B$2</f>
+        <v>341.19</v>
+      </c>
+      <c r="H2">
+        <f>G2/$A$2/2</f>
+        <v>6217.0189504373184</v>
+      </c>
+      <c r="I2">
+        <f>SQRT(ABS($E$2^2-H2^2))</f>
+        <v>59331.694012871056</v>
+      </c>
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>-53114.675062433736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="D3">
+        <f>D2/1000000000</f>
+        <v>1.0240000000000001E-8</v>
+      </c>
+      <c r="F3">
+        <v>460.8</v>
+      </c>
+      <c r="G3">
+        <f>F3+$C$2+$B$2</f>
+        <v>671.7</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">G3/$A$2/2</f>
+        <v>12239.431486880469</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">SQRT(ABS($E$2^2-H3^2))</f>
+        <v>58387.477732344414</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="2">H3-I3</f>
+        <v>-46148.046245463949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="F4">
+        <v>4697</v>
+      </c>
+      <c r="G4">
+        <f>F4+$C$2+$B$2</f>
+        <v>4907.8999999999996</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>89429.664723032067</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>66624.04741087764</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>22805.617312154427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5">
+        <v>8045</v>
+      </c>
+      <c r="G5">
+        <f>F5+$C$2+$B$2</f>
+        <v>8255.9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>150435.49562682214</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>138101.18430129616</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>12334.311325525981</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\uec\基礎科学実験A\06\BSEA2_06_ElectricalCircuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828339C6-E405-4FA0-B732-170F21F36C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93C60B1-EDF2-4F3B-B1F3-0539C66DD12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1086,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6DB60C-38C8-42C2-9FBB-BDEEDCA60692}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
